--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1815.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1815.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.211703146237856</v>
+        <v>1.000457525253296</v>
       </c>
       <c r="B1">
-        <v>2.310725795085879</v>
+        <v>1.324018478393555</v>
       </c>
       <c r="C1">
-        <v>3.166176325895723</v>
+        <v>5.674402236938477</v>
       </c>
       <c r="D1">
-        <v>3.666021434407624</v>
+        <v>1.667941570281982</v>
       </c>
       <c r="E1">
-        <v>1.204652122515347</v>
+        <v>1.022565245628357</v>
       </c>
     </row>
   </sheetData>
